--- a/biology/Zoologie/Estivation/Estivation.xlsx
+++ b/biology/Zoologie/Estivation/Estivation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'estivation est un phénomène de diapause estivale analogue à ceux de l'hivernation et de l'hibernation, au cours duquel les animaux tombent en léthargie. L'estivation se produit durant les périodes les plus chaudes et les plus sèches de l'été.
-On rencontre ce phénomène par exemple chez les crocodiles qui restent enfouis dans la vase pendant les périodes les plus chaudes[1],[2]. Chez les escargots (en particulier l'escargot du désert) ou les « papillons de jour » (Agrodiaettis dolus, Gonepteryx rhamni, Pyronia batbseba, Pyronia cecilia)[3], l'estivation est un moyen de passer les étés très secs.
+On rencontre ce phénomène par exemple chez les crocodiles qui restent enfouis dans la vase pendant les périodes les plus chaudes,. Chez les escargots (en particulier l'escargot du désert) ou les « papillons de jour » (Agrodiaettis dolus, Gonepteryx rhamni, Pyronia batbseba, Pyronia cecilia), l'estivation est un moyen de passer les étés très secs.
 </t>
         </is>
       </c>
